--- a/P97_교육성적표_서식.xlsx
+++ b/P97_교육성적표_서식.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\♥♥능개원 보수교육 실습\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한국기술교육대학교\Documents\GitHub\excel240629_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>사번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,10 @@
   </si>
   <si>
     <t>[ 부서별 성적 분석 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,10 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -942,7 +947,9 @@
       <c r="I4" s="14">
         <v>98</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="14"/>
       <c r="M4" s="16"/>
@@ -972,7 +979,9 @@
       <c r="I5" s="14">
         <v>91</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="14"/>
       <c r="M5" s="16"/>
@@ -1679,6 +1688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">

--- a/P97_교육성적표_서식.xlsx
+++ b/P97_교육성적표_서식.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="성적현황" sheetId="1" r:id="rId1"/>
-    <sheet name="부서별분석" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
+    <sheet name="부서별분석" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>사번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,10 +252,6 @@
     <t>홍보부</t>
   </si>
   <si>
-    <t>교육인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평균점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +265,6 @@
   </si>
   <si>
     <t>[ 컴퓨터활용 교육 성적 현황 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 부서별 성적 분석 ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -857,8 +853,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -869,7 +865,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -948,7 +944,7 @@
         <v>98</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="14"/>
@@ -980,7 +976,7 @@
         <v>91</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="14"/>
@@ -1688,11 +1684,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1704,16 +1714,20 @@
     <col min="10" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>74</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21">
+        <v>2</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -1722,21 +1736,25 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>2</v>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>4</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
-        <v>69</v>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10">
+        <v>5</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="s">
         <v>4</v>
@@ -1757,9 +1775,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1768,9 +1786,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1779,9 +1797,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1790,7 +1808,12 @@
       <c r="G16" s="8"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:H8"/>
@@ -1798,4 +1821,202 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>